--- a/PILOTTO-Loris.xlsx
+++ b/PILOTTO-Loris.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loris\Google Drive\EPFL\QSMT\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6A936D-4777-46CA-9FDD-9F3E34858B16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FC483F-F341-4821-BAB8-21D5FD1393B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Ordered raw material weight [kg]</t>
   </si>
@@ -285,13 +285,53 @@
   </si>
   <si>
     <t>Total number of boxes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>↑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> needs to be a multiple of 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>↑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (from 'Half full boxes constraint')</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +346,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -358,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -368,6 +421,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -685,7 +741,7 @@
         <v>10125</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>20250</v>
       </c>
@@ -693,7 +749,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="L3" s="6" t="s">
         <v>23</v>
       </c>
@@ -702,12 +761,12 @@
         <v>12413</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -837,7 +896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
